--- a/medicine/Sexualité et sexologie/Tommy_Pistol/Tommy_Pistol.xlsx
+++ b/medicine/Sexualité et sexologie/Tommy_Pistol/Tommy_Pistol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tommy Pistol, né le 2 juillet 1976 dans le Queens à New York, est un acteur et réalisateur de films pornographiques américain. Il a obtenu l'AVN Award du « Meilleur nouveau venu » en 2007 et a épousé l'actrice Gia Paloma le 8 décembre 2007.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteur
-Shut Up and Fuck (2011)
+          <t>Acteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Shut Up and Fuck (2011)
 American Dad XXX: An Exquisite Films Parody (2011)
 Taxi Driver: A XXX Parody (2011)
 This Ain't Jeopardy! XXX (2011)
@@ -562,11 +581,7 @@
 Joanna's Angels 2: Alt. Throttle (2006)
 Skater Girl Fever (2006)
 Joanna's Angels (2005)
-Re-Penetrator (2004)
-Réalisateur
-MILFBusters (2011)
-Fast Times at Naughty America University 6 (2008)
-My Sister's Hot Friend 12 (2008)</t>
+Re-Penetrator (2004)</t>
         </is>
       </c>
     </row>
@@ -591,16 +606,56 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Filmographie sélective</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Réalisateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>MILFBusters (2011)
+Fast Times at Naughty America University 6 (2008)
+My Sister's Hot Friend 12 (2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tommy_Pistol</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tommy_Pistol</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2018 : AVN Award Meilleur acteur (Best Actor) pour Ingenue (Wicked Pictures)[3]
-2018 : XBIZ Award Best Actor - Couples-Themed Release pour Ingenue (Wicked Pictures)[4]
-2016 : AVN Award Meilleur acteur (Best Actor) pour Stryker (Digital Playground/Pulse[5]
-2015 : XBIZ Award Meilleure scène dans une parodie (Best Scene - Parody Release) pour American Hustle XXX (avec Aaliyah Love)[6]
-2014 : AVN Award Meilleur acteur (Best Actor)[7]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2018 : AVN Award Meilleur acteur (Best Actor) pour Ingenue (Wicked Pictures)
+2018 : XBIZ Award Best Actor - Couples-Themed Release pour Ingenue (Wicked Pictures)
+2016 : AVN Award Meilleur acteur (Best Actor) pour Stryker (Digital Playground/Pulse
+2015 : XBIZ Award Meilleure scène dans une parodie (Best Scene - Parody Release) pour American Hustle XXX (avec Aaliyah Love)
+2014 : AVN Award Meilleur acteur (Best Actor)
 2007 : AVN Award Meilleur nouveau venu (Best Male Newcomer)</t>
         </is>
       </c>
